--- a/biology/Botanique/Antrophyum/Antrophyum.xlsx
+++ b/biology/Botanique/Antrophyum/Antrophyum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antrophyum est un genre de plantes de la famille des Pteridaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des variétés et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (8 décembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (8 décembre 2017) :
 Antrophyum annetii (Jeanp.) Tard.
 Antrophyum austroqueenslandicum D. L. Jones
 Antrophyum brassii S.Linds.
@@ -573,14 +589,14 @@
 Antrophyum trivittatum C. Chr.
 Antrophyum vittarioides Bak.
 Antrophyum williamsii Benedict
-Selon ITIS      (8 décembre 2017)[3] :
+Selon ITIS      (8 décembre 2017) :
 Antrophyum cajenense (Desv.) Spreng.
 Antrophyum intramarginale (Baker ex Jenman) Kartesz &amp; Gandhi
 Antrophyum lanceolatum (L.) Kaulf.
 Antrophyum lineatum (Sw.) Kaulf.
 Antrophyum plantagineum (Cav.) Kaulf.
 Antrophyum urbanii Brause
-Selon NCBI  (8 décembre 2017)[4] :
+Selon NCBI  (8 décembre 2017) :
 Antrophyum annamense
 Antrophyum callifolium
 Antrophyum castaneum
@@ -604,7 +620,7 @@
 Antrophyum subfalcatum
 Antrophyum vittarioides
 Antrophyum wallichianum
-Selon The Plant List            (8 décembre 2017)[5] :
+Selon The Plant List            (8 décembre 2017) :
 Antrophyum anetioides Christ
 Antrophyum bivittatum C. Chr.
 Antrophyum boryanum (Willd.) Spreng.
@@ -632,7 +648,7 @@
 Antrophyum reticulatum (G. Forst.) Kaulf.
 Antrophyum sessilifolium (Cav.) Spreng.
 Antrophyum vittarioides Baker
-Selon Tropicos                                           (8 décembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Antrophyum alatum Brack.
 Antrophyum anetioides Christ
 Antrophyum annamense Tardieu &amp; C. Chr.
